--- a/resouces/number values.xlsx
+++ b/resouces/number values.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:AJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
